--- a/data/trans_orig/Q24D_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,7</t>
+          <t>2,1; 3,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,52</t>
+          <t>2,13; 4,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,98</t>
+          <t>2,31; 3,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,91</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,88</t>
+          <t>2,0; 3,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,98</t>
+          <t>2,35; 4,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,2</t>
+          <t>2,32; 4,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,61</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,01</t>
+          <t>2,2; 4,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 2,89</t>
+          <t>2,08; 2,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,16</t>
+          <t>2,27; 3,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,56</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,19</t>
+          <t>2,26; 3,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 2,92</t>
+          <t>2,15; 2,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,88</t>
+          <t>2,31; 2,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,12</t>
+          <t>2,21; 7,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,56</t>
+          <t>2,45; 3,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,13</t>
+          <t>2,45; 5,09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,4</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 4,92</t>
+          <t>2,63; 4,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,36</t>
+          <t>2,08; 3,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,39</t>
+          <t>1,82; 2,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,05</t>
+          <t>2,55; 5,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,6</t>
+          <t>1,0; 2,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,67</t>
+          <t>2,0; 4,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,99</t>
+          <t>1,73; 2,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,42</t>
+          <t>2,41; 4,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,6</t>
+          <t>2,43; 4,28</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,43</t>
+          <t>2,24; 3,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,95</t>
+          <t>1,91; 2,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,52</t>
+          <t>2,71; 4,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>4,48</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,72; 7,25</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 3,53</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 5,26</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 6,03</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 20,0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 15,97</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 6,49</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 3,62</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 9,57</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 9,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,51; 3,3</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,5; 3,03</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,38; 2,76</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 3,98</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 3,89</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>2,03; 2,4</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>2,29; 2,65</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>2,32; 2,8</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 3,13</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 3,11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>2,35; 2,83</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>2,44; 2,76</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>2,39; 2,71</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 3,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 3,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q24D_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de veces que han intentado dejar de fumar</t>
+          <t>Número medio de veces que han intentado dejar de fumar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,61</t>
+          <t>1,53; 2,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,35</t>
+          <t>1,79; 2,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,01</t>
+          <t>2,01; 2,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,65</t>
+          <t>2,12; 3,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,72</t>
+          <t>1,79; 2,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,95</t>
+          <t>1,85; 2,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,16</t>
+          <t>1,5; 2,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,49</t>
+          <t>2,09; 4,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,5</t>
+          <t>1,82; 2,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,44</t>
+          <t>1,89; 2,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,48</t>
+          <t>1,86; 2,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,88</t>
+          <t>2,27; 3,81</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,32</t>
+          <t>1,94; 3,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,82</t>
+          <t>2,16; 2,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,87</t>
+          <t>2,24; 2,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,7</t>
+          <t>1,98; 3,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 1,87</t>
+          <t>1,43; 1,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,72</t>
+          <t>2,16; 2,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,01</t>
+          <t>2,06; 3,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,94</t>
+          <t>2,35; 4,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,69</t>
+          <t>1,79; 2,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 2,69</t>
+          <t>2,26; 2,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,73</t>
+          <t>2,24; 2,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,02</t>
+          <t>2,33; 3,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,82</t>
+          <t>1,91; 2,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,91</t>
+          <t>2,34; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,36</t>
+          <t>2,29; 3,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,07</t>
+          <t>2,17; 4,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,81</t>
+          <t>2,2; 2,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,71</t>
+          <t>2,1; 2,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,11</t>
+          <t>2,37; 3,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 2,87</t>
+          <t>2,12; 2,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 2,64</t>
+          <t>2,14; 2,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,39</t>
+          <t>2,3; 3,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,15</t>
+          <t>2,43; 3,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,19</t>
+          <t>2,28; 3,3</t>
         </is>
       </c>
     </row>
@@ -1144,57 +1144,57 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,73</t>
+          <t>2,58; 4,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,65</t>
+          <t>2,53; 3,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,66</t>
+          <t>2,0; 2,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,17</t>
+          <t>2,28; 3,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,25</t>
+          <t>1,99; 3,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 2,79</t>
+          <t>2,18; 2,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,91</t>
+          <t>2,19; 2,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 2,93</t>
+          <t>2,15; 2,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,97</t>
+          <t>2,52; 4,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,05</t>
+          <t>2,46; 3,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,69</t>
+          <t>2,17; 2,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,2</t>
+          <t>2,46; 5,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,46</t>
+          <t>2,45; 3,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,74</t>
+          <t>2,25; 3,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,01</t>
+          <t>2,17; 7,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,19</t>
+          <t>1,54; 3,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,73</t>
+          <t>2,17; 6,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,87</t>
+          <t>1,85; 2,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,57</t>
+          <t>2,46; 3,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,88</t>
+          <t>2,3; 4,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,63</t>
+          <t>2,46; 3,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,22</t>
+          <t>2,21; 3,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,09</t>
+          <t>2,47; 5,19</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 4,71</t>
+          <t>2,6; 4,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,71</t>
+          <t>2,1; 3,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,87</t>
+          <t>1,78; 2,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,21</t>
+          <t>2,53; 5,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,37 +1449,37 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,54</t>
+          <t>2,0; 4,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,55</t>
+          <t>1,75; 2,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,74</t>
+          <t>2,42; 4,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,28</t>
+          <t>2,5; 4,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,7</t>
+          <t>2,26; 3,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,68</t>
+          <t>1,93; 2,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,65</t>
+          <t>2,66; 4,56</t>
         </is>
       </c>
     </row>
@@ -1564,22 +1564,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,25</t>
+          <t>2,73; 7,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,53</t>
+          <t>1,64; 3,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,26</t>
+          <t>2,32; 5,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,03</t>
+          <t>2,23; 6,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1604,22 +1604,22 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,49</t>
+          <t>2,35; 6,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,62</t>
+          <t>1,68; 3,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 9,57</t>
+          <t>2,87; 11,12</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 9,05</t>
+          <t>2,65; 9,54</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,3</t>
+          <t>2,49; 3,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,03</t>
+          <t>2,5; 3,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,76</t>
+          <t>2,38; 2,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,89</t>
+          <t>2,6; 3,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,4</t>
+          <t>2,02; 2,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,65</t>
+          <t>2,28; 2,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,8</t>
+          <t>2,31; 2,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,53; 3,11</t>
+          <t>2,55; 3,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,83</t>
+          <t>2,36; 2,82</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,76</t>
+          <t>2,45; 2,78</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,71</t>
+          <t>2,39; 2,68</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,27</t>
+          <t>2,62; 3,3</t>
         </is>
       </c>
     </row>
